--- a/raw_data/KEEN ONE/Byrnes/2014/NE Shoals Entry 2014/NE Shoals Logger Info 2014.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2014/NE Shoals Entry 2014/NE Shoals Logger Info 2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="5160" yWindow="4840" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Samples/Hr</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>loggers within ~ 1.5 m along a small (~0.5-1 m wieght ridge)</t>
+  </si>
   <si>
     <t>Region</t>
   </si>
@@ -27,46 +42,34 @@
     <t>Site</t>
   </si>
   <si>
+    <t>SML</t>
+  </si>
+  <si>
     <t>Logger</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Date Deployed</t>
-  </si>
-  <si>
-    <t>Samples/Hr</t>
-  </si>
-  <si>
-    <t>Date Retrieved</t>
-  </si>
-  <si>
     <t>Logger ID</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>2/ hour</t>
-  </si>
-  <si>
-    <t>last 3 digits = 660</t>
-  </si>
-  <si>
-    <t>last 3 digits = 661</t>
-  </si>
-  <si>
-    <t>Logger 1</t>
-  </si>
-  <si>
-    <t>Logger 2</t>
-  </si>
-  <si>
-    <t>SML</t>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Deployed Logger 1</t>
+  </si>
+  <si>
+    <t>Deployed Logger 2</t>
+  </si>
+  <si>
+    <t>Retrieved Logger 1</t>
+  </si>
+  <si>
+    <t>Retrieved Logger 2</t>
   </si>
   <si>
     <t>NE Appledore</t>
@@ -78,14 +81,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,6 +109,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,32 +135,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,102 +509,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>660</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>2014</v>
+      </c>
+      <c r="H2">
+        <v>42.991409003999998</v>
+      </c>
+      <c r="I2">
+        <v>-70.617746030999996</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>661</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>2014</v>
+      </c>
+      <c r="H3">
+        <v>42.991409003999998</v>
+      </c>
+      <c r="I3">
+        <v>-70.617746030999996</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D4">
+        <v>221</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>2014</v>
+      </c>
+      <c r="H4">
+        <v>42.991409003999998</v>
+      </c>
+      <c r="I4">
+        <v>-70.617746030999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="C5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>42.993069040000002</v>
-      </c>
-      <c r="E2">
-        <v>-70.613883985000001</v>
-      </c>
-      <c r="F2" s="4">
-        <v>41841</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>660</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>42.993069040000002</v>
-      </c>
-      <c r="E3">
-        <v>-70.613883985000001</v>
-      </c>
-      <c r="F3" s="4">
-        <v>41841</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>661</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
